--- a/data/trans_bre/P32B-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P32B-Estudios-trans_bre.xlsx
@@ -660,16 +660,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.935982763768421</v>
+        <v>-2.984590709483302</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.343498525492619</v>
+        <v>-4.479084494359411</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.072225120784563</v>
+        <v>-4.183216352950963</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-7.210113980555691</v>
+        <v>-6.810413965252817</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
@@ -690,26 +690,26 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.5950874015862311</v>
+        <v>-0.5695409916824937</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.4198009113284145</v>
+        <v>-0.505121610773609</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8521007292117799</v>
+        <v>0.6613192127384837</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.8748099918473303</v>
+        <v>-0.7657281661334908</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>0.6324067423427233</v>
+        <v>0.3988199921538346</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3.459493621872924</v>
+        <v>2.362548479432311</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.03660327631039407</v>
+        <v>0.01990947833813329</v>
       </c>
     </row>
     <row r="7">
@@ -733,7 +733,7 @@
         <v>-0.8681874552377505</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6439917762229421</v>
+        <v>0.6439917762229423</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9624491187036777</v>
@@ -745,7 +745,7 @@
         <v>-0.4478079435275843</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.4497846092580509</v>
+        <v>0.449784609258051</v>
       </c>
     </row>
     <row r="8">
@@ -756,28 +756,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.3361800077467879</v>
+        <v>-0.2363771344498878</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.210135510778279</v>
+        <v>-3.14871710444065</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.847221924806303</v>
+        <v>-1.908264244164438</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.8631560798534089</v>
+        <v>-0.8849640469756457</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4781714346240922</v>
+        <v>-0.3987395097048592</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8656529160535011</v>
+        <v>-0.8875913899314466</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7533015758892595</v>
+        <v>-0.8104339621515013</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5451011114546441</v>
+        <v>-0.5132814815828011</v>
       </c>
     </row>
     <row r="9">
@@ -788,28 +788,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.062872484059535</v>
+        <v>1.994846656568816</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-0.5301118226492211</v>
+        <v>-0.7097419663278507</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3645383129212081</v>
+        <v>0.2230484067317664</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.45321022505475</v>
+        <v>2.648591164401102</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>4.727927566877085</v>
+        <v>4.47412696362413</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1660536152975572</v>
+        <v>-0.2006011994874885</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2975895961667481</v>
+        <v>0.2358107022875099</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.534691942016849</v>
+        <v>2.869390149856159</v>
       </c>
     </row>
     <row r="10">
@@ -833,7 +833,7 @@
         <v>-1.059009403406916</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.6158720832383495</v>
+        <v>-0.6158720832383499</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.521805698059926</v>
@@ -845,7 +845,7 @@
         <v>-0.5086829092536773</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.2616825148185753</v>
+        <v>-0.2616825148185754</v>
       </c>
     </row>
     <row r="11">
@@ -856,16 +856,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.6200757068005804</v>
+        <v>-0.7157716333978755</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.165494830558599</v>
+        <v>-5.303989347825463</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.167969068872942</v>
+        <v>-3.448377854411216</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.717383002216114</v>
+        <v>-2.65181337547119</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
@@ -873,7 +873,7 @@
         <v>-1</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.7622521552572096</v>
+        <v>-0.7619407538913183</v>
       </c>
     </row>
     <row r="12">
@@ -884,24 +884,24 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.676301384371778</v>
+        <v>2.684120534168985</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.063998124205277</v>
+        <v>-1.157872221193574</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5757166917002039</v>
+        <v>0.8026452718309797</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.390075031537351</v>
+        <v>1.38979165796787</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="n">
-        <v>0.9302464906939637</v>
+        <v>1.747053709196953</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.316071692691768</v>
+        <v>1.199458742361271</v>
       </c>
     </row>
     <row r="13">
@@ -948,28 +948,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.4408889955133993</v>
+        <v>-0.4251159106598031</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.096173749267674</v>
+        <v>-3.049254699866199</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.081080051434926</v>
+        <v>-1.928896396203146</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.408704979790276</v>
+        <v>-1.526315640701772</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4764050537741991</v>
+        <v>-0.4238749063691587</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.8974679194186558</v>
+        <v>-0.8977969464212171</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.797206889256047</v>
+        <v>-0.7501150831830596</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5287842773982396</v>
+        <v>-0.5467518373581747</v>
       </c>
     </row>
     <row r="15">
@@ -980,28 +980,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.190403419136332</v>
+        <v>1.193845595542055</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-1.296389372785275</v>
+        <v>-1.203585673923113</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-0.2720383997015077</v>
+        <v>-0.1748556701248077</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.10857388165745</v>
+        <v>0.9211604162862702</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.156955667622913</v>
+        <v>2.22435459876891</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.4827301606423168</v>
+        <v>-0.4587808639012695</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.1105052124588967</v>
+        <v>-0.03714061072036172</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.666763576347732</v>
+        <v>0.5959612097358172</v>
       </c>
     </row>
     <row r="16">
